--- a/biology/Botanique/Allium_moschatum/Allium_moschatum.xlsx
+++ b/biology/Botanique/Allium_moschatum/Allium_moschatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium moschatum, l'Ail musqué, est une espèce de plante herbacée méditerranéenne de la famille des Amaryllidaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">10 à 25 cm de hauteur. Fleurs blanches rayées de pourpre.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Garrigues et pelouses rocailleuses ouvertes basiphiles de 0 à 1300 m. d'altitude.
 </t>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Géophyte à bulbe. Floraison de Juillet à août.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (16 novembre 2014)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (16 novembre 2014) (Attention liste brute contenant possiblement des synonymes) :
 variété Allium moschatum var. borzhomicum Miscz. ex Grossh.
 variété Allium moschatum var. brevipedunculatum Regel
 variété Allium moschatum var. dubium Regel</t>
